--- a/biology/Botanique/Matthiola/Matthiola.xlsx
+++ b/biology/Botanique/Matthiola/Matthiola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matthiola est un genre botanique de plantes annuelles, de vivaces herbacées ou d'arbrisseaux de la famille des Brassicaceae. Il doit son nom à Pierandrea Mattioli. Il est plus connu sous le nom de « giroflée » et on apprécie généralement les giroflées pour le doux parfum des fleurs. Certaines espèces sont prisées en horticulture ornementale pour la culture en jardin et la fleur coupée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthiola est un genre botanique de plantes annuelles, de vivaces herbacées ou d'arbrisseaux de la famille des Brassicaceae. Il doit son nom à Pierandrea Mattioli. Il est plus connu sous le nom de « giroflée » et on apprécie généralement les giroflées pour le doux parfum des fleurs. Certaines espèces sont prisées en horticulture ornementale pour la culture en jardin et la fleur coupée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes de ce genres ont des feuilles simples ou pinnatifides, à marge entière ou dentée. La floraison est une grappe terminale. Les fleurs sont souvent parfumées, surtout la nuit. Chaque fleur compte 4 sépales érigés et 4 pétales allongés. Les étamines sont au nombre de 6. Le fruit est une silique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes de ce genres ont des feuilles simples ou pinnatifides, à marge entière ou dentée. La floraison est une grappe terminale. Les fleurs sont souvent parfumées, surtout la nuit. Chaque fleur compte 4 sépales érigés et 4 pétales allongés. Les étamines sont au nombre de 6. Le fruit est une silique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est réparti dans plusieurs pays de l'Europe de l'Ouest, de l'Asie centrale et du Sud de l'Afrique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est réparti dans plusieurs pays de l'Europe de l'Ouest, de l'Asie centrale et du Sud de l'Afrique.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Matthiola compte de 50 à 60 espèces, parmi celles-ci, on peut citer :
 Matthiola fruticulosa (L.) Maire
